--- a/Reporting/Bronze_tables/Price/df_sec_attribute.xlsx
+++ b/Reporting/Bronze_tables/Price/df_sec_attribute.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,17 +440,72 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>1m SOFR</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PX_LAST</t>
+          <t>3m SOFR</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATURITY</t>
+          <t>6m SOFR</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1y SOFR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1m LIBOR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>3m LIBOR</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1m A1/P1 CP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3m A1/P1 CP</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>6m A1/P1 CP</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9m A1/P1 CP</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1m T-Bill</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1m T-Bill Maturity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>3m T-Bill</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>3m T-Bill Maturity</t>
         </is>
       </c>
     </row>
@@ -458,188 +513,47 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1m SOFR</t>
-        </is>
+      <c r="B2" t="n">
+        <v>5.27601</v>
       </c>
       <c r="C2" t="n">
-        <v>5.27601</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3m SOFR</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
         <v>5.08064</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6m SOFR</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="D2" t="n">
         <v>4.7737</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1y SOFR</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="E2" t="n">
         <v>4.30022</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1m LIBOR</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="F2" t="n">
         <v>5.39243</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="G2" t="n">
+        <v>5.33292</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.2025</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="N2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3m LIBOR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5.33292</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1m A1/P1 CP</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3m A1/P1 CP</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>6m A1/P1 CP</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>9m A1/P1 CP</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1m T-Bill</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>5.2025</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>45559</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3m T-Bill</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="O2" s="2" t="n">
         <v>45617</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>912797LH8</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>5.2225</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>45552</v>
       </c>
     </row>
   </sheetData>

--- a/Reporting/Bronze_tables/Price/df_sec_attribute.xlsx
+++ b/Reporting/Bronze_tables/Price/df_sec_attribute.xlsx
@@ -514,43 +514,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.27601</v>
+        <v>5.25163</v>
       </c>
       <c r="C2" t="n">
-        <v>5.08064</v>
+        <v>5.06109</v>
       </c>
       <c r="D2" t="n">
-        <v>4.7737</v>
+        <v>4.74793</v>
       </c>
       <c r="E2" t="n">
-        <v>4.30022</v>
+        <v>4.26103</v>
       </c>
       <c r="F2" t="n">
-        <v>5.39243</v>
+        <v>5.39049</v>
       </c>
       <c r="G2" t="n">
-        <v>5.33292</v>
+        <v>5.34225</v>
       </c>
       <c r="H2" t="n">
-        <v>5.27</v>
+        <v>5.24</v>
       </c>
       <c r="I2" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="J2" t="n">
-        <v>4.92</v>
+        <v>4.87</v>
       </c>
       <c r="K2" t="n">
-        <v>4.75</v>
+        <v>4.66</v>
       </c>
       <c r="L2" t="n">
-        <v>5.2025</v>
+        <v>5.2325</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>45559</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.005</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>45617</v>

--- a/Reporting/Bronze_tables/Price/df_sec_attribute.xlsx
+++ b/Reporting/Bronze_tables/Price/df_sec_attribute.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,72 +440,102 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1m SOFR</t>
+          <t>security</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>3m SOFR</t>
+          <t>SECURITY_TYP</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>6m SOFR</t>
+          <t>ISSUER</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1y SOFR</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1m LIBOR</t>
+          <t>ISSUE_DT</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>3m LIBOR</t>
+          <t>MATURITY</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>1m A1/P1 CP</t>
+          <t>AMT_OUTSTANDING</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>3m A1/P1 CP</t>
+          <t>COUPON</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>6m A1/P1 CP</t>
+          <t>FLOATER</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>9m A1/P1 CP</t>
+          <t>MTG_FACTOR</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>1m T-Bill</t>
+          <t>PX_LAST</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>1m T-Bill Maturity</t>
+          <t>INT_ACC</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>3m T-Bill</t>
+          <t>MTG_WAL</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>3m T-Bill Maturity</t>
+          <t>DAYS_ACC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>RTG_SP</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RTG_MOODY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>RTG_FITCH</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RTG_KBRA</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>RTG_DBRS</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>RTG_EGAN_JONES</t>
         </is>
       </c>
     </row>
@@ -513,48 +543,649 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>5.25163</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.06109</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.74793</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.26103</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.39049</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.34225</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5.24</v>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20632C5Z6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CALLABLE CP</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CONCORD MINUTEMEN CAP CO</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CONCORD MINUTEMEN CAP CO</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.66</v>
-      </c>
+        <v>5.63</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.2325</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>45559</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.005</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>45617</v>
-      </c>
+        <v>99.98999999999999</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.2345277777777778</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>A-1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>P-1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20632C6C6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CALLABLE CP</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CONCORD MINUTEMEN CAP CO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CONCORD MINUTEMEN CAP CO</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.938555555555556</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>124</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>A-1</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>P-1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20632C6T9</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CALLABLE CP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CONCORD MINUTEMEN CAP CO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CONCORD MINUTEMEN CAP CO</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1.126444444444445</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>74</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>A-1</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>P-1</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2063C0LE0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>22757AAA4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Prvt CMO Other</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cross Mortgage Trust</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CROSS 2024-H1 A1</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>61722</v>
+      </c>
+      <c r="H6" t="n">
+        <v>218408688.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.085</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8912966904</v>
+      </c>
+      <c r="L6" t="n">
+        <v>101.2169876098633</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4394722222222222</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.9345</v>
+      </c>
+      <c r="O6" t="n">
+        <v>26</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22757AAB2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Prvt CMO Other</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Cross Mortgage Trust</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CROSS 2024-H1 A2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>61722</v>
+      </c>
+      <c r="H7" t="n">
+        <v>20719974.16</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.237</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8912966903</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100.5579986572266</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.45045</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.9345</v>
+      </c>
+      <c r="O7" t="n">
+        <v>26</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22757AAC0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Prvt CMO Other</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cross Mortgage Trust</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CROSS 2024-H1 A3</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>61722</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15610170.24</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8912966906000001</v>
+      </c>
+      <c r="L8" t="n">
+        <v>100.8685455322266</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4687222222222222</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.9345</v>
+      </c>
+      <c r="O8" t="n">
+        <v>26</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22757AAD8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Prvt CMO Other</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cross Mortgage Trust</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CROSS 2024-H1 M1</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>61722</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12898000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.072</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>103.1344223022461</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5107555555555556</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.4111</v>
+      </c>
+      <c r="O9" t="n">
+        <v>26</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>BBB-</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>BBB+</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22757AAG1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Prvt CMO Other</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Cross Mortgage Trust</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CROSS 2024-H1 B1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>61722</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16559000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.791383</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>102.2265014648438</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6349332166666666</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.4111</v>
+      </c>
+      <c r="O10" t="n">
+        <v>26</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22757BAA2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Prvt CMO Other</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cross Mortgage Trust</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CROSS 2024-H2 A1</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>61843</v>
+      </c>
+      <c r="H11" t="n">
+        <v>229688203.03</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.093</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9695699102999999</v>
+      </c>
+      <c r="L11" t="n">
+        <v>101.1706161499023</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4400499999999999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.4757</v>
+      </c>
+      <c r="O11" t="n">
+        <v>26</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
